--- a/file.xlsx
+++ b/file.xlsx
@@ -1,34 +1,202 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suen6\PycharmProjects\google_scraper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2519A032-7F74-43C5-A2E4-39F96B49FAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="websites" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="websites" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Byline Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Sitelinks</t>
+  </si>
+  <si>
+    <t>Rich Attributes</t>
+  </si>
+  <si>
+    <t>Brand Display</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>About eSIM on iPhone</t>
+  </si>
+  <si>
+    <t>https://support.apple.com/en-ca/HT212780</t>
+  </si>
+  <si>
+    <t>Feb 16, 2023 — An eSIM is an industry-standard digital SIM that allows you to activate a cellular plan from your carrier without having to use a physical ...</t>
+  </si>
+  <si>
+    <t>What is an eSIM? Here's everything you need to know</t>
+  </si>
+  <si>
+    <t>https://www.digitaltrends.com/mobile/esim-explainer/</t>
+  </si>
+  <si>
+    <t>Sep 14, 2022 — It's a programmable SIM card that's physically connected (soldered) to your smartphone's motherboard. It does everything a removable SIM card ...</t>
+  </si>
+  <si>
+    <t>Airalo: Local and regional eSIMs for travellers</t>
+  </si>
+  <si>
+    <t>https://www.airalo.com/</t>
+  </si>
+  <si>
+    <t>Airalo is the world's first eSIM store that solves the pain of high roaming bills by giving you access to 200+ eSIMs (digital SIM cards) globally at affordable ...</t>
+  </si>
+  <si>
+    <t>/search?q=esim&amp;num=15&amp;tbm=isch&amp;source=iu&amp;ictx=1&amp;vet=1&amp;fir=OCSZTAeB3Kp7QM%252CojMMHXzJL8T8IM%252C%252Fg%252F11hczw_m64%253BD0YIC4E7QyfEUM%252Ch3OWemApfeINwM%252C_%253BE56-Rky1RpWm-M%252C2JP4rp1XPd2BtM%252C_%253BRlUln-d18ZF0LM%252CHJFXsS16LlNJCM%252C_%253Bq3jyXhucJkhl8M%252ClqzotEaa1MDtQM%252C_&amp;usg=AI4_-kQvDQi0WgC9MBstLRO-xHHfg8q0Hg&amp;sa=X&amp;ved=2ahUKEwjZ3_2PheL_AhWZ0mEKHR3zC30Q_B16BAhbEAE#imgrc=OCSZTAeB3Kp7QM</t>
+  </si>
+  <si>
+    <t>eSIM.me: Upgrade to eSIM</t>
+  </si>
+  <si>
+    <t>https://esim.me/</t>
+  </si>
+  <si>
+    <t>Download &amp; Manage eSIM profiles. Store up to 15 eSIM profiles per eSIM.me Card on your smartphone and use them instantly on any device with a SIM card slot ...</t>
+  </si>
+  <si>
+    <t>What is an eSIM?: Everything You Need to Know</t>
+  </si>
+  <si>
+    <t>https://www.whistleout.ca/CellPhones/Guides/esims</t>
+  </si>
+  <si>
+    <t>Jun 16, 2023 — An eSIM is an electronic SIM card. Unlike the standard physical SIM card we use for our cell phones, which come in different SIM sizes, the eSIM ...</t>
+  </si>
+  <si>
+    <t>eSIM - Wikipedia</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/ESIM</t>
+  </si>
+  <si>
+    <t>An eSIM (embedded-SIM) is a form of SIM card that is embedded directly into a device. Instead of an integrated circuit located on a removable SIM card, ...</t>
+  </si>
+  <si>
+    <t>eSIM Canada: Everything You Need to Know</t>
+  </si>
+  <si>
+    <t>https://www.planhub.ca/blog/en/esim-canada-everything-you-need-to-know/</t>
+  </si>
+  <si>
+    <t>Oct 29, 2021 — eSIMs have many advantages over traditional SIM cards, and could become the new industry standard. The “e” in eSIM stands for “embedded”.</t>
+  </si>
+  <si>
+    <t>A Guide to The Best eSIM to Travel to Canada With in 2023</t>
+  </si>
+  <si>
+    <t>https://www.tripzilla.com/canada-esims/139473</t>
+  </si>
+  <si>
+    <t>Feb 10, 2023 — An eSIM is a SIM card embedded in the device. It's a virtual chip that stores all the information of your cellular data plan and can be used to ...</t>
+  </si>
+  <si>
+    <t>Setting up an eSIM Card on your Device</t>
+  </si>
+  <si>
+    <t>https://www.rogers.com/support/mobility/setting-up-an-esim-card-on-your-device</t>
+  </si>
+  <si>
+    <t>An eSIM is a digital SIM that lets you activate a celluar plan without having to use a physical SIM card. For devices that support Dual Sim, an eSIM is ...</t>
+  </si>
+  <si>
+    <t>What is an eSIM? What it means for your phone or Apple ...</t>
+  </si>
+  <si>
+    <t>https://www.pocket-lint.com/what-is-an-esim-and-how-will-it-change-connected-devices-for-the-better/</t>
+  </si>
+  <si>
+    <t>3 days ago — The term "eSIM" simply means an embedded SIM card. There are no physical SIM cards involved and no physical swapping over required by you. eSIM ...</t>
+  </si>
+  <si>
+    <t>Nomad eSIM - Travel like a Local</t>
+  </si>
+  <si>
+    <t>https://www.getnomad.app/en/</t>
+  </si>
+  <si>
+    <t>Data packs at local rates for instant connectivity · Popular Countries · Download Nomad iOS app to manage and top up your eSIMs anytime, anywhere.</t>
+  </si>
+  <si>
+    <t>eSIM</t>
+  </si>
+  <si>
+    <t>https://www.albertahealthservices.ca/info/esim.aspx</t>
+  </si>
+  <si>
+    <t>eSIM™ (Educate, Simulate, Innovate, Motivate) is a provincial simulation program under the Quality &amp; Healthcare Improvement portfolio in Alberta Health ...</t>
+  </si>
+  <si>
+    <t>What Is an eSIM Card?</t>
+  </si>
+  <si>
+    <t>https://www.pcmag.com/how-to/what-is-an-esim-card</t>
+  </si>
+  <si>
+    <t>Mar 8, 2021 — On eSIM devices, in general, you can go to a menu or take a photo of a QR code to change your carrier or service plan on the fly. You don't need ...</t>
+  </si>
+  <si>
+    <t>What are Dual SIM and eSIM? How do I use them? - Bell support</t>
+  </si>
+  <si>
+    <t>https://support.bell.ca/mobility/smartphones_and_mobile_internet/what_are_dual_sim_and_esim_and_how_do_i_use_them</t>
+  </si>
+  <si>
+    <t>eSIM-compatible devices: iPhone XS, iPhone XS Max, , iPhone XR, or later (dual eSIMs supported on iPhone 13 or later); Google Pixel 3 series or later ...</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +215,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,212 +517,298 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="54.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Domain</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Byline Date</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Sitelinks</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Rich Attributes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Website</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Textr Team</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://textrapp.com/team/home</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Textr Team is the perfect solution for freelancers and sole ...</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Textr Team</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://textrapp.com/team/home</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Textr Team is the perfect solution for freelancers and sole ...</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Website</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Textr Team</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://textrapp.com/team/home</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Textr Team is the perfect solution for freelancers and sole ...</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Textr Team Download</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>https://textrapp.com/download-page</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Get the latest Textr update for Android &amp; iOS for Textr eSIM ...</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Website</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Textr Team</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://textrapp.com/team/home</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Textr Team is the perfect solution for freelancers and sole ...</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Textr eSIM</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>https://esim.textrapp.com/</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Textr eSIM helps you stay connected with local networks ...</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Website</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Textr Team</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://textrapp.com/team/home</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Textr Team is the perfect solution for freelancers and sole ...</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Textr Team App</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>https://web.textrapp.com/</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://web.textrapp.com. 1. Login with your Textr Team account's ...</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
